--- a/Excel/queryHelper/saved_SGE.xlsx
+++ b/Excel/queryHelper/saved_SGE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mes données\Outils\Dev\Excel\Transverse\queryHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mes données\Outils\Dev\Excel\queryHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,18 @@
     <sheet name="F180_FTA4" sheetId="37" r:id="rId5"/>
     <sheet name="F180_FTA4_RES" sheetId="38" r:id="rId6"/>
     <sheet name="RIF_GKO" sheetId="42" r:id="rId7"/>
+    <sheet name="DEM77" sheetId="43" r:id="rId8"/>
+    <sheet name="DEM77_RES" sheetId="44" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="223">
   <si>
     <t/>
   </si>
@@ -873,6 +878,70 @@
 AND dem.DEM_D_EFFET &lt;= TO_DATE('16/05/2020', 'DD/MM/YYYY')
 AND PRE_FICHEOPTION_CODE IN ('F140BO2')
 ;</t>
+  </si>
+  <si>
+    <t>PLA_DATE</t>
+  </si>
+  <si>
+    <t>D_RDV</t>
+  </si>
+  <si>
+    <t>F120B
+F130B
+F180</t>
+  </si>
+  <si>
+    <t>PRM_SC_SEGMENT</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
+    <t>SELECT TO_CHAR(DATE_DEMANDE, 'YYYY/MM/DD') as DATE_VOL, COUNT(1) as VOLUMETRIE, GINKO FROM
+(
+SELECT DISTINCT dem.AFF_T_DISCO as AFFAIRE, dem.DEM_ID_PRM as POINT, nat.NAT_C_PRESTATION as PRESTATION, nat.NAT_C_SOUS_TYPE as PRS_OPTION, DECODE(dem.DEM_K_CATEGORIE, '1', 'PRO', '2', 'PART') as CAT_CLIENT, frn.FRN_T_ACTEUR as FOURNISSEUR, dem.DEM_R_STATUT as STATUT, ee.EST_T_ETAT as ETAT_EXTERNE, ei.EST_T_ETAT as ETAT_INTERNE, dem.DEM_D_DEMANDE as DATE_DEMANDE, dem.DEM_D_EFFET as DATE_EFFET, DECODE(dem.DEM_K_MODALITE_RDV, '1', 'DIS', '2', 'FRN') as MOD_RDV, dem.DEM_R_MEDIA_RECEPTION as MEDIA, mai.MAI_T_REGION as REGION, mai.MAI_T_TERRITOIRE as TERRITOIRE, dem.DEM_B_IS_SGEL as SGEL, dem.DEM_B_IS_GINKO as GINKO
+FROM SUIVI.DEMANDE dem
+JOIN SUIVI.NATURE nat ON dem.DEM_K_NAT = nat.NAT_ID
+LEFT JOIN SUIVI.ETAT_STATUT ee ON dem.DEM_K_EST_EXT = ee.EST_ID
+JOIN SUIVI.ETAT_STATUT ei ON dem.DEM_K_EST_INT = ei.EST_ID
+JOIN SUIVI.FOURNISSEUR frn ON frn.FRN_ID = dem.DEM_K_FRN
+LEFT JOIN SUIVI.MAILLE mai ON mai.MAI_ID = dem.DEM_K_MAI
+WHERE 1=1
+AND nat.NAT_C_PRESTATION IN ('F120B', 'F130B', 'F180')
+AND dem.DEM_D_DEMANDE &gt;= TO_DATE('03/09/2020', 'DD/MM/YYYY')
+AND dem.DEM_R_MEDIA_RECEPTION IN ('EAI')
+ORDER BY dem.DEM_D_DEMANDE
+)
+GROUP BY GINKO, TO_CHAR(DATE_DEMANDE, 'YYYY/MM/DD')
+ORDER BY 1 DESC
+;</t>
+  </si>
+  <si>
+    <t>2020/09/09</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2020/09/08</t>
+  </si>
+  <si>
+    <t>2020/09/07</t>
+  </si>
+  <si>
+    <t>2020/09/06</t>
+  </si>
+  <si>
+    <t>2020/09/05</t>
+  </si>
+  <si>
+    <t>2020/09/04</t>
+  </si>
+  <si>
+    <t>2020/09/03</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -1362,6 +1431,145 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,6 +1585,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RES"/>
+      <sheetName val="TURPE"/>
+      <sheetName val="SGE"/>
+      <sheetName val="PARAM_SGE"/>
+      <sheetName val="TUBE"/>
+      <sheetName val="PARAM_TUBE"/>
+      <sheetName val="GINKO"/>
+      <sheetName val="PARAM_GINKO"/>
+      <sheetName val="ADAM"/>
+      <sheetName val="RFC"/>
+      <sheetName val="GCP"/>
+      <sheetName val="CAPELLA"/>
+      <sheetName val="PARAM_BASIC"/>
+      <sheetName val="INIT"/>
+      <sheetName val="CONF"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Button_BuildQueryCount"/>
+      <definedName name="Button_BuildQuerySelect"/>
+      <definedName name="Button_Count"/>
+      <definedName name="Button_Delete"/>
+      <definedName name="Button_ExportCSV"/>
+      <definedName name="Button_ExportRes"/>
+      <definedName name="Button_Find"/>
+      <definedName name="Button_Load"/>
+      <definedName name="Button_Save"/>
+      <definedName name="Button_ShowParam"/>
+      <definedName name="envUpdate"/>
+      <definedName name="Main.Button_Reset"/>
+      <definedName name="SGE.Button_MinusOneDay"/>
+      <definedName name="SGE.Button_MinusOneMonth"/>
+      <definedName name="SGE.Button_MinusOneWeek"/>
+      <definedName name="SGE.Button_Now"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12576,7 +12843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52:B56"/>
     </sheetView>
   </sheetViews>
@@ -14039,4 +14306,1780 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="85"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="85"/>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="85"/>
+    </row>
+    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="85"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="91"/>
+      <c r="P5" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="88"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="85"/>
+    </row>
+    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="88"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="85"/>
+    </row>
+    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="60"/>
+      <c r="N10" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="85"/>
+    </row>
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="60"/>
+      <c r="N11" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="85"/>
+    </row>
+    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="85"/>
+    </row>
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="92"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="60"/>
+      <c r="N13" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="88"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="85"/>
+    </row>
+    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="88"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="85"/>
+    </row>
+    <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="92"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="85"/>
+    </row>
+    <row r="17" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="92"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="88"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="85"/>
+    </row>
+    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="92"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="106"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="85"/>
+    </row>
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="92"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="85"/>
+    </row>
+    <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="106"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="85"/>
+    </row>
+    <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="92"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="106"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="85"/>
+    </row>
+    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="92"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="106"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="85"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="106"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="85"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="106"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="85"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="85"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="92"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="85"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="92"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="85"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="85"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="92"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="85"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="92"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="85"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="85"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="85"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="85"/>
+    </row>
+    <row r="35" spans="1:20" ht="345" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="92"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="85"/>
+    </row>
+    <row r="36" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="85"/>
+    </row>
+    <row r="37" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="85"/>
+    </row>
+    <row r="38" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="85"/>
+    </row>
+    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="85"/>
+    </row>
+    <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="118"/>
+      <c r="T40" s="85"/>
+    </row>
+    <row r="41" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="97"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="118"/>
+      <c r="T41" s="85"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="85"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="85"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="85"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="85"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="85"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="85"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="85"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="85"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="85"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:DM15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="11.42578125" style="67"/>
+    <col min="9" max="54" width="11.42578125" style="6"/>
+    <col min="55" max="55" width="11.42578125" style="67"/>
+    <col min="56" max="83" width="11.42578125" style="6"/>
+    <col min="84" max="84" width="11.42578125" style="67"/>
+    <col min="85" max="117" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:117" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="69"/>
+      <c r="CT2" s="69"/>
+      <c r="CU2" s="69"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="69"/>
+      <c r="CX2" s="69"/>
+      <c r="CY2" s="69"/>
+      <c r="CZ2" s="69"/>
+      <c r="DA2" s="69"/>
+      <c r="DB2" s="69"/>
+      <c r="DC2" s="69"/>
+      <c r="DD2" s="69"/>
+      <c r="DE2" s="69"/>
+      <c r="DF2" s="69"/>
+      <c r="DG2" s="69"/>
+      <c r="DH2" s="69"/>
+      <c r="DI2" s="69"/>
+      <c r="DJ2" s="69"/>
+      <c r="DK2" s="69"/>
+      <c r="DL2" s="69"/>
+      <c r="DM2" s="69"/>
+    </row>
+    <row r="3" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="67">
+        <v>6910</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="67">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="67">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="67">
+        <v>16537</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="67">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="67">
+        <v>10152</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="67">
+        <v>151</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="67">
+        <v>1213</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="67">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="67">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="67">
+        <v>1664</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="67">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="2:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="67">
+        <v>1632</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/queryHelper/saved_SGE.xlsx
+++ b/Excel/queryHelper/saved_SGE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="RIF_GKO" sheetId="42" r:id="rId7"/>
     <sheet name="DEM77" sheetId="43" r:id="rId8"/>
     <sheet name="DEM77_RES" sheetId="44" r:id="rId9"/>
+    <sheet name="Vol prs TRV" sheetId="45" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="227">
   <si>
     <t/>
   </si>
@@ -942,6 +943,34 @@
   </si>
   <si>
     <t>2020/09/03</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>05/01/2020</t>
+  </si>
+  <si>
+    <t>SELECT TO_CHAR(DATE_EFFET, 'YYYY/MM/DD') as DATE_VOL, COUNT(1) as VOLUMETRIE, GINKO, PRESTATION FROM
+(
+SELECT DISTINCT dem.AFF_T_DISCO as AFFAIRE, dem.DEM_ID_PRM as POINT, nat.NAT_C_PRESTATION as PRESTATION, nat.NAT_C_SOUS_TYPE as PRS_OPTION, DECODE(dem.DEM_K_CATEGORIE, '1', 'PRO', '2', 'PART') as CAT_CLIENT, frn.FRN_T_ACTEUR as FOURNISSEUR, dem.DEM_R_STATUT as STATUT, ee.EST_T_ETAT as ETAT_EXTERNE, ei.EST_T_ETAT as ETAT_INTERNE, dem.DEM_D_DEMANDE as DATE_DEMANDE, dem.DEM_D_EFFET as DATE_EFFET, DECODE(dem.DEM_K_MODALITE_RDV, '1', 'DIS', '2', 'FRN') as MOD_RDV, dem.DEM_R_MEDIA_RECEPTION as MEDIA, mai.MAI_T_REGION as REGION, mai.MAI_T_TERRITOIRE as TERRITOIRE, dem.DEM_B_IS_SGEL as SGEL, dem.DEM_B_IS_GINKO as GINKO
+FROM SUIVI.DEMANDE dem
+JOIN SUIVI.NATURE nat ON dem.DEM_K_NAT = nat.NAT_ID
+LEFT JOIN SUIVI.ETAT_STATUT ee ON dem.DEM_K_EST_EXT = ee.EST_ID
+JOIN SUIVI.ETAT_STATUT ei ON dem.DEM_K_EST_INT = ei.EST_ID
+JOIN SUIVI.FOURNISSEUR frn ON frn.FRN_ID = dem.DEM_K_FRN
+LEFT JOIN SUIVI.MAILLE mai ON mai.MAI_ID = dem.DEM_K_MAI
+WHERE 1=1
+AND dem.DEM_D_EFFET &gt;= TO_DATE('31/12/2019', 'DD/MM/YYYY')
+AND dem.DEM_D_EFFET &lt;= TO_DATE('05/01/2020', 'DD/MM/YYYY')
+ORDER BY dem.DEM_D_DEMANDE
+)
+GROUP BY GINKO, PRESTATION, TO_CHAR(DATE_EFFET, 'YYYY/MM/DD')
+ORDER BY 1 DESC
+;</t>
+  </si>
+  <si>
+    <t>Cellule copiée dans le presse-papier</t>
   </si>
 </sst>
 </file>
@@ -1407,30 +1436,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -1538,18 +1543,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1569,6 +1562,42 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,6 +1620,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Feuil1"/>
       <sheetName val="RES"/>
       <sheetName val="TURPE"/>
       <sheetName val="SGE"/>
@@ -1641,6 +1671,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1944,6 +1975,1488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="78"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="78"/>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="78"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="84"/>
+      <c r="P5" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="78"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="78"/>
+    </row>
+    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="81"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="78"/>
+    </row>
+    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="60"/>
+      <c r="N10" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="111"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="78"/>
+    </row>
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="60"/>
+      <c r="N11" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="78"/>
+    </row>
+    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="78"/>
+    </row>
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="60"/>
+      <c r="N13" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="78"/>
+    </row>
+    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="85"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="81"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="78"/>
+    </row>
+    <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="85"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="78"/>
+    </row>
+    <row r="17" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="85"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="81"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="78"/>
+    </row>
+    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="85"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="99"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="78"/>
+    </row>
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="78"/>
+    </row>
+    <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="85"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="99"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="78"/>
+    </row>
+    <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="85"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="99"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="78"/>
+    </row>
+    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="85"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="99"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="78"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="99"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="78"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="99"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="78"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="78"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="78"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="85"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="78"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="78"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="78"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="78"/>
+    </row>
+    <row r="35" spans="1:20" ht="345" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="85"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="78"/>
+    </row>
+    <row r="36" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="78"/>
+    </row>
+    <row r="37" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="78"/>
+    </row>
+    <row r="38" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="78"/>
+    </row>
+    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="78"/>
+    </row>
+    <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="78"/>
+    </row>
+    <row r="41" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="90"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="78"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="78"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="78"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="78"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="78"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="78"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="78"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="78"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="78"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="78"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
@@ -2275,10 +3788,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -2735,7 +4248,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="77"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="5"/>
@@ -2759,7 +4272,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="54"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="78"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="5"/>
@@ -2783,7 +4296,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24"/>
@@ -2807,7 +4320,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="80"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="24"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -2831,7 +4344,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="24"/>
@@ -2855,7 +4368,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="80"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -2968,11 +4481,11 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="24"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -3719,10 +5232,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -4179,7 +5692,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="112" t="s">
         <v>85</v>
       </c>
       <c r="G24" s="24"/>
@@ -4205,7 +5718,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="54"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="78"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="5"/>
@@ -4229,7 +5742,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24"/>
@@ -4253,7 +5766,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="80"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="24"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -4277,7 +5790,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="24"/>
@@ -4301,7 +5814,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="80"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -4414,11 +5927,11 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="24"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -11393,10 +12906,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -11855,7 +13368,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="112" t="s">
         <v>186</v>
       </c>
       <c r="G24" s="24"/>
@@ -11881,7 +13394,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="54"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="78"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="5"/>
@@ -11905,7 +13418,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24"/>
@@ -11929,7 +13442,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="80"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="24"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -11953,7 +13466,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="24"/>
@@ -11977,7 +13490,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="80"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -12090,11 +13603,11 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="24"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -13169,10 +14682,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -13629,7 +15142,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="112" t="s">
         <v>207</v>
       </c>
       <c r="G24" s="24"/>
@@ -13655,7 +15168,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="54"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="78"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="5"/>
@@ -13679,7 +15192,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24"/>
@@ -13703,7 +15216,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="80"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="24"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -13727,7 +15240,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="24"/>
@@ -13751,7 +15264,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="80"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -13864,11 +15377,11 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="24"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -14312,7 +15825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52:B56"/>
     </sheetView>
   </sheetViews>
@@ -14327,20 +15840,20 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="85"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -14349,20 +15862,20 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="85"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
@@ -14375,20 +15888,20 @@
       <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="85"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
@@ -14400,14 +15913,14 @@
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="15" t="s">
         <v>7</v>
       </c>
@@ -14422,11 +15935,11 @@
       <c r="O4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="85"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
@@ -14441,12 +15954,12 @@
       <c r="F5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
         <v>208</v>
       </c>
       <c r="K5" s="8"/>
@@ -14454,17 +15967,17 @@
         <v>14</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="90" t="s">
+      <c r="N5" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="85" t="s">
+      <c r="O5" s="84"/>
+      <c r="P5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="85" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14481,12 +15994,12 @@
       <c r="F6" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="93"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
@@ -14494,17 +16007,17 @@
         <v>14</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="94"/>
+      <c r="N6" s="87"/>
       <c r="O6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="85"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="78"/>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
@@ -14519,26 +16032,26 @@
       <c r="F7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="93"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="3"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97" t="s">
+      <c r="N7" s="89"/>
+      <c r="O7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="85" t="s">
+      <c r="P7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
@@ -14553,22 +16066,22 @@
       <c r="F8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="88"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="85"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
@@ -14583,28 +16096,28 @@
       <c r="F9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="93" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="60"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="85"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="78"/>
     </row>
     <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
@@ -14619,12 +16132,12 @@
       <c r="F10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="101" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="94" t="s">
         <v>211</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -14634,15 +16147,15 @@
         <v>14</v>
       </c>
       <c r="M10" s="60"/>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="85"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
@@ -14657,12 +16170,12 @@
       <c r="F11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="91"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
@@ -14670,17 +16183,17 @@
         <v>14</v>
       </c>
       <c r="M11" s="60"/>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="103" t="s">
+      <c r="O11" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="85"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="78"/>
     </row>
     <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
@@ -14695,26 +16208,26 @@
       <c r="F12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="85"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
@@ -14729,28 +16242,28 @@
       <c r="F13" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="88" t="s">
+      <c r="H13" s="85"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="81" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="60"/>
-      <c r="N13" s="102" t="s">
+      <c r="N13" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="85"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
@@ -14765,30 +16278,30 @@
       <c r="F14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="84"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="93" t="s">
         <v>43</v>
       </c>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
-      <c r="N14" s="102" t="s">
+      <c r="N14" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="88" t="s">
+      <c r="O14" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="85" t="s">
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14805,28 +16318,28 @@
       <c r="F15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="104" t="s">
+      <c r="H15" s="85"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="105" t="s">
+      <c r="K15" s="98" t="s">
         <v>47</v>
       </c>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="85"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="78"/>
     </row>
     <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
@@ -14841,26 +16354,26 @@
       <c r="F16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="106"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="99"/>
       <c r="L16" s="60"/>
       <c r="M16" s="60"/>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="88" t="s">
+      <c r="O16" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="85"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="78"/>
     </row>
     <row r="17" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
@@ -14875,24 +16388,24 @@
       <c r="F17" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="106"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="88"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="85"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="78"/>
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
@@ -14907,24 +16420,24 @@
       <c r="F18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="106"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="99"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="106"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="85"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="78"/>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
@@ -14939,26 +16452,26 @@
       <c r="F19" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="106"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="99"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
-      <c r="N19" s="102" t="s">
+      <c r="N19" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="106" t="s">
+      <c r="O19" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="85"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="78"/>
     </row>
     <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
@@ -14973,28 +16486,28 @@
       <c r="F20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="108" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="109" t="s">
+      <c r="K20" s="102" t="s">
         <v>184</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="106"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="85"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="78"/>
     </row>
     <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
@@ -15009,28 +16522,28 @@
       <c r="F21" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="108" t="s">
+      <c r="H21" s="85"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="103" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
-      <c r="N21" s="102" t="s">
+      <c r="N21" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="106"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="85"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="78"/>
     </row>
     <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
@@ -15045,30 +16558,30 @@
       <c r="F22" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="92" t="s">
+      <c r="G22" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="108" t="s">
+      <c r="H22" s="85"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="111" t="s">
+      <c r="K22" s="104" t="s">
         <v>71</v>
       </c>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
-      <c r="N22" s="102" t="s">
+      <c r="N22" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="106"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85" t="s">
+      <c r="O22" s="99"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="85"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="78"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
@@ -15077,22 +16590,22 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="106"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="85"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="78"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
@@ -15102,25 +16615,25 @@
         <v>62</v>
       </c>
       <c r="E24" s="55"/>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="102" t="s">
+      <c r="N24" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="85"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="78"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
@@ -15128,21 +16641,21 @@
       <c r="C25" s="3"/>
       <c r="D25" s="54"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="85"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="78"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
@@ -15152,23 +16665,23 @@
         <v>63</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="85"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="78"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
@@ -15176,21 +16689,21 @@
       <c r="C27" s="3"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="85"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="78"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
@@ -15200,23 +16713,23 @@
         <v>64</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="85"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="78"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
@@ -15224,21 +16737,21 @@
       <c r="C29" s="3"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="85"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="78"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
@@ -15251,20 +16764,20 @@
       <c r="F30" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="60"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="85"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="78"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
@@ -15275,20 +16788,20 @@
       <c r="F31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="92"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="60"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="85"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="78"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
@@ -15296,21 +16809,21 @@
       <c r="C32" s="3"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="60"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="85"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="78"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
@@ -15319,44 +16832,44 @@
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="85"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="78"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="85"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="78"/>
     </row>
     <row r="35" spans="1:20" ht="345" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
@@ -15366,23 +16879,23 @@
         <v>86</v>
       </c>
       <c r="E35" s="60"/>
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="85"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="78"/>
     </row>
     <row r="36" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
@@ -15392,23 +16905,23 @@
         <v>88</v>
       </c>
       <c r="E36" s="60"/>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="85"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="78"/>
     </row>
     <row r="37" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
@@ -15418,23 +16931,23 @@
         <v>90</v>
       </c>
       <c r="E37" s="60"/>
-      <c r="F37" s="119" t="s">
+      <c r="F37" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="85"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="78"/>
     </row>
     <row r="38" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
@@ -15444,23 +16957,23 @@
         <v>76</v>
       </c>
       <c r="E38" s="60"/>
-      <c r="F38" s="119" t="s">
+      <c r="F38" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="60"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="85"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="78"/>
     </row>
     <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
@@ -15470,23 +16983,23 @@
         <v>93</v>
       </c>
       <c r="E39" s="60"/>
-      <c r="F39" s="119" t="s">
+      <c r="F39" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="85"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="78"/>
     </row>
     <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
@@ -15496,23 +17009,23 @@
         <v>187</v>
       </c>
       <c r="E40" s="60"/>
-      <c r="F40" s="119" t="s">
+      <c r="F40" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="85"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="78"/>
     </row>
     <row r="41" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
@@ -15522,23 +17035,23 @@
         <v>189</v>
       </c>
       <c r="E41" s="60"/>
-      <c r="F41" s="119" t="s">
+      <c r="F41" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
       <c r="K41" s="60"/>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="85"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="78"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
@@ -15547,20 +17060,20 @@
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="60"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="85"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="78"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
@@ -15569,20 +17082,20 @@
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="85"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="78"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
@@ -15591,20 +17104,20 @@
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="60"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
       <c r="K44" s="60"/>
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="85"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="78"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
@@ -15613,20 +17126,20 @@
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
       <c r="K45" s="60"/>
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="85"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="78"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
@@ -15635,20 +17148,20 @@
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
       <c r="K46" s="60"/>
       <c r="L46" s="60"/>
       <c r="M46" s="60"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="85"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="78"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
@@ -15657,20 +17170,20 @@
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
       <c r="K47" s="60"/>
       <c r="L47" s="60"/>
       <c r="M47" s="60"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="85"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="78"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
@@ -15679,20 +17192,20 @@
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
       <c r="K48" s="60"/>
       <c r="L48" s="60"/>
       <c r="M48" s="60"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-      <c r="Q48" s="85"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="120"/>
-      <c r="T48" s="85"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="78"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
@@ -15701,20 +17214,20 @@
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
       <c r="K49" s="60"/>
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="121"/>
-      <c r="T49" s="85"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="78"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
@@ -15723,20 +17236,20 @@
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
       <c r="K50" s="60"/>
       <c r="L50" s="60"/>
       <c r="M50" s="60"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="121"/>
-      <c r="T50" s="85"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="78"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">

--- a/Excel/queryHelper/saved_SGE.xlsx
+++ b/Excel/queryHelper/saved_SGE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,17 @@
     <sheet name="DEM77" sheetId="43" r:id="rId6"/>
     <sheet name="DEM77_RES" sheetId="44" r:id="rId7"/>
     <sheet name="Vol prs TRV" sheetId="45" r:id="rId8"/>
-    <sheet name="M021" sheetId="47" r:id="rId9"/>
+    <sheet name="M021" sheetId="51" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="141">
   <si>
     <t/>
   </si>
@@ -692,10 +692,10 @@
     <t>Cellule copiée dans le presse-papier</t>
   </si>
   <si>
-    <t>15/09/2020</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(1) as VOLUMETRIE, PRS_OPTION, ETAT_EXTERNE FROM
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>SELECT TO_CHAR(DATE_DEMANDE, 'YYYY/MM/DD') as DATE_VOL, COUNT(1) as VOLUMETRIE, PRS_OPTION, FOURNISSEUR, ETAT_EXTERNE FROM
 (
 SELECT DISTINCT dem.AFF_T_DISCO as AFFAIRE, dem.DEM_ID_PRM as POINT, nat.NAT_C_PRESTATION as PRESTATION, nat.NAT_C_SOUS_TYPE as PRS_OPTION, DECODE(dem.DEM_K_CATEGORIE, '1', 'PRO', '2', 'PART') as CAT_CLIENT, frn.FRN_T_ACTEUR as FOURNISSEUR, dem.DEM_R_STATUT as STATUT, ee.EST_T_ETAT as ETAT_EXTERNE, ei.EST_T_ETAT as ETAT_INTERNE, dem.DEM_D_DEMANDE as DATE_DEMANDE, dem.DEM_D_EFFET as DATE_EFFET, DECODE(dem.DEM_K_MODALITE_RDV, '1', 'DIS', '2', 'FRN') as MOD_RDV, dem.DEM_R_MEDIA_RECEPTION as MEDIA, mai.MAI_T_REGION as REGION, mai.MAI_T_TERRITOIRE as TERRITOIRE, dem.DEM_B_IS_SGEL as SGEL, dem.DEM_B_IS_GINKO as GINKO
 FROM SUIVI.DEMANDE dem
@@ -706,9 +706,10 @@
 LEFT JOIN SUIVI.MAILLE mai ON mai.MAI_ID = dem.DEM_K_MAI
 WHERE 1=1
 AND nat.NAT_C_PRESTATION IN ('M021')
-AND dem.DEM_D_DEMANDE &gt;= TO_DATE('15/09/2020', 'DD/MM/YYYY')
+AND dem.DEM_D_DEMANDE &gt;= TO_DATE('01/01/2020', 'DD/MM/YYYY')
+ORDER BY dem.DEM_D_DEMANDE
 )
-GROUP BY PRS_OPTION, ETAT_EXTERNE
+GROUP BY PRS_OPTION, FOURNISSEUR, ETAT_EXTERNE, TO_CHAR(DATE_DEMANDE, 'YYYY/MM/DD')
 ORDER BY 1 DESC
 ;</t>
   </si>
@@ -9906,11 +9907,11 @@
       <c r="E8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>0</v>
+      <c r="F8" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="2"/>
@@ -10328,10 +10329,12 @@
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="48"/>
+      <c r="K20" s="73" t="s">
+        <v>96</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="40" t="s">
@@ -10362,10 +10365,10 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="74" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="1"/>
@@ -10398,10 +10401,10 @@
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="75" t="s">
         <v>71</v>
       </c>
       <c r="L22" s="1"/>

--- a/Excel/queryHelper/saved_SGE.xlsx
+++ b/Excel/queryHelper/saved_SGE.xlsx
@@ -22,9 +22,6 @@
     <sheet name="Vol prs TRV" sheetId="45" r:id="rId8"/>
     <sheet name="M021" sheetId="51" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
@@ -1355,65 +1352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RES"/>
-      <sheetName val="TURPE"/>
-      <sheetName val="SGE"/>
-      <sheetName val="PARAM_SGE"/>
-      <sheetName val="TUBE"/>
-      <sheetName val="PARAM_TUBE"/>
-      <sheetName val="GINKO"/>
-      <sheetName val="PARAM_GINKO"/>
-      <sheetName val="ADAM"/>
-      <sheetName val="RFC"/>
-      <sheetName val="GCP"/>
-      <sheetName val="CAPELLA"/>
-      <sheetName val="PARAM_BASIC"/>
-      <sheetName val="INIT"/>
-      <sheetName val="CONF"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Button_BuildQueryCount"/>
-      <definedName name="Button_BuildQuerySelect"/>
-      <definedName name="Button_Count"/>
-      <definedName name="Button_Delete"/>
-      <definedName name="Button_ExportCSV"/>
-      <definedName name="Button_ExportRes"/>
-      <definedName name="Button_Find"/>
-      <definedName name="Button_Load"/>
-      <definedName name="Button_Save"/>
-      <definedName name="Button_ShowParam"/>
-      <definedName name="envUpdate"/>
-      <definedName name="Main.Button_Reset"/>
-      <definedName name="SGE.Button_MinusOneDay"/>
-      <definedName name="SGE.Button_MinusOneMonth"/>
-      <definedName name="SGE.Button_MinusOneWeek"/>
-      <definedName name="SGE.Button_Now"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
